--- a/ResultsTransformation/Map/Routes/route01.xlsx
+++ b/ResultsTransformation/Map/Routes/route01.xlsx
@@ -424,302 +424,302 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -794,34 +794,34 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -886,34 +886,34 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -978,34 +978,34 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1070,34 +1070,34 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1162,24 +1162,24 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1284,78 +1284,78 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1390,64 +1390,64 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1482,34 +1482,34 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1544,32 +1544,32 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1604,64 +1604,64 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1696,24 +1696,24 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1748,68 +1748,68 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1899,140 +1899,140 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2067,74 +2067,74 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2169,74 +2169,74 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2291,24 +2291,24 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2343,24 +2343,24 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2395,68 +2395,68 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2546,24 +2546,24 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2628,24 +2628,24 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2710,24 +2710,24 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2884,74 +2884,74 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -2966,114 +2966,114 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3088,114 +3088,114 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3210,114 +3210,114 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3332,52 +3332,52 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>.</t>
         </is>
       </c>
     </row>

--- a/ResultsTransformation/Map/Routes/route01.xlsx
+++ b/ResultsTransformation/Map/Routes/route01.xlsx
@@ -826,62 +826,62 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -918,62 +918,62 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1010,62 +1010,62 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1102,62 +1102,62 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1224,62 +1224,62 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1360,32 +1360,32 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -1574,32 +1574,32 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -1666,32 +1666,32 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2037,32 +2037,32 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2241,32 +2241,32 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2313,32 +2313,32 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2568,62 +2568,62 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -2650,62 +2650,62 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -2732,62 +2732,62 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -2814,72 +2814,72 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
@@ -2956,12 +2956,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3078,12 +3078,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3322,12 +3322,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>p</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
